--- a/meta/2-a-1.xlsx
+++ b/meta/2-a-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Press\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DB98E-49B8-4E7D-8C92-FE5F1E8F539C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.а.1" sheetId="1" r:id="rId1"/>
@@ -209,7 +210,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -334,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -367,9 +368,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -382,8 +380,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -399,9 +397,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -439,7 +437,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,6 +472,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -509,9 +524,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -684,27 +716,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="48.83984375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="61.15625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.15625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -712,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="130" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -720,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -728,13 +760,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -742,7 +774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -750,7 +782,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -758,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -766,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -774,13 +806,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -788,7 +820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="255.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="255.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -796,7 +828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -804,13 +836,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="98.7" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -818,7 +850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="95.1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -826,13 +858,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="128.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
@@ -840,7 +872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -848,19 +880,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -868,7 +900,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>39</v>
       </c>
@@ -876,37 +908,29 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.5">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="12"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="11" t="s">
+      <c r="B25" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="26" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:2" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="13"/>
-      <c r="K65" s="14"/>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.5">
+      <c r="F63" s="12"/>
+      <c r="K63" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="www.stat.kg"/>
+    <hyperlink ref="B10" r:id="rId1" display="www.stat.kg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/meta/2-a-1.xlsx
+++ b/meta/2-a-1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DB98E-49B8-4E7D-8C92-FE5F1E8F539C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="2.а.1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -28,190 +22,163 @@
     <t>Цель</t>
   </si>
   <si>
-    <t>Цель 2. Ликвидация голода, обеспечение продовольственной безопасности и улучшение питания и содействие устойчивому развитию сельского хозяйства</t>
-  </si>
-  <si>
     <t>Задача</t>
   </si>
   <si>
-    <t>2.a Увеличить инвестирование, в том числе посредством активизации международного сотрудничества, в сельскую инфраструктуру, сельскохозяйственные исследования и агропропаганду, развитие технологий и создание генетических банков растений и животных в целях укрепления потенциала развивающихся стран, особенно наименее развитых стран, в области сельскохозяйственного производства</t>
-  </si>
-  <si>
     <t>Индикатор</t>
   </si>
   <si>
-    <t>2.a.1 Индекс ориентированности на сельское хозяйство, определяемый по структуре государственных расходов</t>
-  </si>
-  <si>
     <t>2. Информация об организации</t>
   </si>
   <si>
     <t>Организация</t>
   </si>
   <si>
-    <t>Нацстатком КР</t>
-  </si>
-  <si>
     <t>Контактное лицо (лица) / Координатор</t>
   </si>
   <si>
-    <t>Национальный координатор - Жукова Е.Н., ведущий специалист отдела статистики финансов НСК КР</t>
-  </si>
-  <si>
     <t>Электронная почта контактного лица</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">Жукова Е.Н.: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>e.jukova@stat.kg</t>
-    </r>
-  </si>
-  <si>
     <t>Телефон контактного лица</t>
   </si>
   <si>
-    <t>НСК КР: +996-0312-66-42-09</t>
-  </si>
-  <si>
     <t>Сайт организации (если есть)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">НСК КР: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>www.stat.kg</t>
-    </r>
-  </si>
-  <si>
     <t>3. Определения и понятия</t>
   </si>
   <si>
     <t>Определение</t>
   </si>
   <si>
-    <t>Индекс ориентации государственных расходов на сельское хозяйство (AOI) определяется как соотношение доли государственных расходов на сельское хозяйство к доле сельского хозяйства в ВВП, где сельское хозяйство включает в себя земледелие, лесного хозяйство, рыболовство и охоту.</t>
-  </si>
-  <si>
     <t>Основные понятия:</t>
   </si>
   <si>
-    <t>Расходы государственного бюджета включают все невозвратные платежи, независимо от того, являются ли они возмездными (т.е. заплаченными в обмен на что-то) или безвозмездными и для каких целей осуществляются - для проведения операционной деятельности или для приобретения нефинансовых активов.
-Государственные расходы в области сельского хозяйства включают: расходы на секторальную политику и программы, расходы по улучшению качества почв и контроль деградации почв, орошение и водоснабжение для сельскохозяйственных нужд, наблюдение за здоровьем животных, исследования в животноводстве и обучение животноводству, морские или пресноводные биологические исследования, мероприятия в области облесения и других лесохозяйственных проектов и т.п.
+    <t>Обоснование и толкование</t>
+  </si>
+  <si>
+    <t>4. Источники данных и методы сбора</t>
+  </si>
+  <si>
+    <t>Источники данных</t>
+  </si>
+  <si>
+    <t>Методы сбора данных</t>
+  </si>
+  <si>
+    <t>5. Метод расчета и другие методологические основы</t>
+  </si>
+  <si>
+    <t>Метод расчета:</t>
+  </si>
+  <si>
+    <t>Комментарий и ограничения:</t>
+  </si>
+  <si>
+    <t>Гарантия качества:</t>
+  </si>
+  <si>
+    <t>6. Доступность данных и дезагрегация</t>
+  </si>
+  <si>
+    <t>Доступность данных и пробелы:</t>
+  </si>
+  <si>
+    <t>Разбивка:</t>
+  </si>
+  <si>
+    <t>7. Сопоставимость с международными данными / стандартами</t>
+  </si>
+  <si>
+    <t>8. Ссылки и документация</t>
+  </si>
+  <si>
+    <t>2. Ликвидация голода, обеспечение продовольственной безопасности, улучшение питания и содействие устойчивому развитию сельского хозяйства</t>
+  </si>
+  <si>
+    <t>2.a: Увеличить инвестирование, в том числе посредством активизации международного сотрудничества, в сельскую инфраструктуру, сельскохозяйственные исследования и агропропаганду, развитие технологий и создание генетических банков растений и животных в целях укрепления потенциала развивающихся стран, особенно наименее развитых стран, в области сельскохозяйственного производства</t>
+  </si>
+  <si>
+    <t>2.a.1: Индекс ориентированности на сельское хозяйство, определяемый по структуре государственных расходов</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Отдел статистики финансов).</t>
+  </si>
+  <si>
+    <t>Жукова Е.Н.</t>
+  </si>
+  <si>
+    <t>e.jukova@stat.kg</t>
+  </si>
+  <si>
+    <t>(0312) -66-42-09</t>
+  </si>
+  <si>
+    <t>www.stat.kg</t>
+  </si>
+  <si>
+    <t>Индекс ориентации государственных расходов на сельское хозяйство (AOI) определяется как соотношение доли государственных расходов на сельское хозяйство к доле сельского хозяйства в ВВП, где сельское хозяйство включает в себя земледелие, лесное хозяйство, рыболовство и охоту.</t>
+  </si>
+  <si>
+    <t>Расходы государственного бюджета включают все невозвратные платежи, независимо от того, являются ли они возмездными (т.е. заплаченными в обмен на что-то) или безвозмездными и для каких целей осуществляются - для проведения операционной деятельности или для приобретения нефинансовых активов. 
+Государственные расходы в области сельского хозяйства включают: расходы на секторальную политику и программы, расходы по улучшению качества почв и контроль деградации почв, орошение и водоснабжение для сельскохозяйственных нужд, наблюдение за здоровьем животных, исследования в животноводстве и обучение животноводству, морские или пресноводные биологические исследования, мероприятия в области облесения и других лесохозяйственных проектов и т.п. 
 Доля сельского хозяйства в ВВП измеряется соотношением добавленной стоимости сельского хозяйства к ВВП.</t>
   </si>
   <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
     <t>Если значение индекса ориентации на сельское хозяйство (AOI) превышает 1, то это говорит о высокой ориентации на сельскохозяйственный сектор, затраты на который превышают его вклад в экономическую добавленную стоимость. Значение AOI меньше 1 отражает более низкую ориентацию на сельское хозяйство, тогда как AOI, равный 1, показывает нейтралитет в ориентации правительства на сельскохозяйственный сектор.</t>
-  </si>
-  <si>
-    <t>4. Источники данных и методы сбора</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
   </si>
   <si>
     <t>Данные о государственных расходах - административные данные Центрального казначейства Министерства финансов КР из отчетов по исполнению государственного, республиканского и местных бюджетов.
 Данные о валовой добавленной стоимости сельского хозяйства и ВВП (или доле сельского хозяйства в ВВП) - Управление экономической статистики и национальных счетов НСК КР.</t>
   </si>
   <si>
-    <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>ЦК МФ КР предоставляет отчеты об исполнении государственного, республиканского и местных бюджетов в НСК КР на ежемесячной и годовой основе. 
+    <t>ЦК МФ КР предоставляет отчеты об исполнении государственного, республиканского и местных бюджетов в Нацстатком на ежемесячной и годовой основе.  
 Данные по ВВП формируются Управлением экономической статистики и национальных счетов НСК КР, в соответствии с Программой статистических работ.</t>
   </si>
   <si>
-    <t>5. Метод расчета и другие методологические основы</t>
-  </si>
-  <si>
-    <t>Метод расчета:</t>
-  </si>
-  <si>
-    <t>Метод расчета:
-AOI = (доля государственных расходов правительства) / (доля сельского хозяйства в ВВП), где
-1) Доля сельского хозяйства в расходах правительства = (Расходы центрального правительства на сельское хозяйство) /(Общие расходы центрального правительства); 
+    <t>Метод расчета: 
+AOI = (доля государственных расходов правительства) / (доля сельского хозяйства в ВВП), где 
+1) Доля сельского хозяйства в расходах правительства = (Расходы центрального правительства на сельское хозяйство) /(Общие расходы центрального правительства);  
 2) Доля сельского хозяйства в ВВП = (валовая добавленная стоимость сельского хозяйства) / ВВП</t>
   </si>
   <si>
-    <t>Комментарий и ограничения:</t>
-  </si>
-  <si>
     <t>Поскольку числитель этих данных основан на административных источниках, нет доверительного интервала или стандартной ошибки, связанной с данными государственных расходов. Для знаменателя данные национальных счетов обычно не предоставляют никакой информации о стандартных ошибках или доверительных интервалах.</t>
   </si>
   <si>
-    <t>Гарантия качества:</t>
-  </si>
-  <si>
-    <t>6. Доступность данных и дезагрегация</t>
-  </si>
-  <si>
-    <t>Доступность данных и пробелы:</t>
-  </si>
-  <si>
     <t>Данные по индикатору имеются в годовой динамике с 2007 года. Данные доступны на сайте НСК в разделе "Открытые данные" (Open Data) и разделе "Статистика" / "Цели устойчивого развития".</t>
   </si>
   <si>
-    <t>Разбивка:</t>
-  </si>
-  <si>
     <t>Данные по индикатору представлены по Кыргызской Республике в целом.</t>
   </si>
   <si>
-    <t>7. Сопоставимость с международными данными / стандартами</t>
-  </si>
-  <si>
-    <t>Показатель 2.a.1 находится под координацией ФАО ООН.</t>
-  </si>
-  <si>
-    <t>8. Ссылки и документация</t>
+    <t>Показатель 2.a.1 находится под координацией ФАО ООН</t>
   </si>
   <si>
     <t>Метаданные на сайте ООН: https://unstats.un.org/sdgs/metadata/
-Методология показателей доступна на сайте НСК КР: www.stat.kg</t>
+Методология показателей на сайте Нацстаткома: www.stat.kg
+Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,73 +191,9 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -333,58 +236,35 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -397,9 +277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -437,7 +317,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -472,23 +352,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -524,26 +387,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -716,223 +562,217 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.83984375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="61.15625" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.15625" style="3"/>
+    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="130" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.5">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.3" x14ac:dyDescent="0.5">
-      <c r="A6" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A7" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" ht="80.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="4" t="s">
+      <c r="B19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="255.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="4" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="123.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" ht="98.7" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="95.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" ht="128.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="27.6" x14ac:dyDescent="0.5">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="28.2" x14ac:dyDescent="0.5">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="6:11" x14ac:dyDescent="0.5">
-      <c r="F63" s="12"/>
-      <c r="K63" s="13"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="www.stat.kg" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/meta/2-a-1.xlsx
+++ b/meta/2-a-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>2.a.1: Индекс ориентированности на сельское хозяйство, определяемый по структуре государственных расходов</t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Отдел статистики финансов).</t>
-  </si>
-  <si>
-    <t>Жукова Е.Н.</t>
-  </si>
-  <si>
-    <t>e.jukova@stat.kg</t>
-  </si>
-  <si>
-    <t>(0312) -66-42-09</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Индекс ориентации государственных расходов на сельское хозяйство (AOI) определяется как соотношение доли государственных расходов на сельское хозяйство к доле сельского хозяйства в ВВП, где сельское хозяйство включает в себя земледелие, лесное хозяйство, рыболовство и охоту.</t>
   </si>
   <si>
@@ -158,18 +143,42 @@
     <t>Метаданные на сайте ООН: https://unstats.un.org/sdgs/metadata/
 Методология показателей на сайте Нацстаткома: www.stat.kg
 Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Упарвление статистики финансов и цен).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Абдукадирова М.А. 
+</t>
+  </si>
+  <si>
+    <t>m.abdukadirova@stat.kg</t>
+  </si>
+  <si>
+    <t>(0312) -62-55-91</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,25 +245,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -566,7 +583,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,16 +633,16 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,23 +650,23 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -663,7 +680,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="212.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -679,7 +696,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +710,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +718,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -715,7 +732,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,7 +740,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +760,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +768,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
